--- a/report.xlsx
+++ b/report.xlsx
@@ -15,9 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>1111</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>№ Компании</t>
+  </si>
+  <si>
+    <t>Компания</t>
+  </si>
+  <si>
+    <t>Условие показа</t>
+  </si>
+  <si>
+    <t>Тип стр</t>
+  </si>
+  <si>
+    <t>Тип мелкого изменения</t>
+  </si>
+  <si>
+    <t>Описание мелк изм</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>заг - 1</t>
+  </si>
+  <si>
+    <t>заг - 2</t>
+  </si>
+  <si>
+    <t>объявл</t>
+  </si>
+  <si>
+    <t>Завершен</t>
+  </si>
+  <si>
+    <t>Показы_Посл</t>
+  </si>
+  <si>
+    <t>Клики</t>
+  </si>
+  <si>
+    <t>CTR (%)</t>
+  </si>
+  <si>
+    <t>Расход (руб.)</t>
+  </si>
+  <si>
+    <t>Глубина (стр.)</t>
+  </si>
+  <si>
+    <t>Конверсии</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
   <si>
     <t>[гинеколог] эндокринолог -александровна -алтуфьево -анастасия -анатольевна -андреев -ассоциация -брест -вопрос -геннадьевна -гомеопат -детский -евгеньевна -елена -заниматься -ирина -карпов -краснодарский -кузнецов -люберецкий -минск -пенза -рейтинг -романов -савченко -самойлов -севастопольском -симферополь -степанова -татьяна -харьков -чертаново -яровая</t>
@@ -35,31 +86,31 @@
     <t>http://www.mc-euromed.ru/ginekologiya/endokrinolog/</t>
   </si>
   <si>
+    <t>Гинеколог-эндокринолог</t>
+  </si>
+  <si>
+    <t>Ведущие врачи</t>
+  </si>
+  <si>
+    <t>Специализация по гинекологической эндокринологии. Врачи с обширным опытом.</t>
+  </si>
+  <si>
+    <t>20 лет опыта</t>
+  </si>
+  <si>
+    <t>Рядом с домом</t>
+  </si>
+  <si>
+    <t>страница баннер врачи</t>
+  </si>
+  <si>
+    <t>комментарий 5</t>
+  </si>
+  <si>
+    <t>http://www.mc-euromed.ru/ginekologiya/</t>
+  </si>
+  <si>
     <t>Гинеколог-эндокринолог. Евро-Мед.</t>
-  </si>
-  <si>
-    <t>Специализация по гинекологической эндокринологии. Врачи с обширным опытом.</t>
-  </si>
-  <si>
-    <t>Гинеколог-эндокринолог</t>
-  </si>
-  <si>
-    <t>Ведущие врачи</t>
-  </si>
-  <si>
-    <t>20 лет опыта</t>
-  </si>
-  <si>
-    <t>Рядом с домом</t>
-  </si>
-  <si>
-    <t>страница баннер врачи</t>
-  </si>
-  <si>
-    <t>комментарий 5</t>
-  </si>
-  <si>
-    <t>http://www.mc-euromed.ru/ginekologiya/</t>
   </si>
 </sst>
 </file>
@@ -67,7 +118,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -90,62 +141,13 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="8"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,43 +169,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
+  <cellXfs count="3">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -211,33 +177,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -539,231 +478,258 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="B11" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="12.3603238866397"/>
-    <col customWidth="1" max="3" min="2" style="13" width="21.4251012145749"/>
-    <col customWidth="1" max="4" min="4" style="13" width="24.9716599190283"/>
-    <col customWidth="1" max="5" min="5" style="13" width="21.4251012145749"/>
-    <col customWidth="1" max="6" min="6" style="13" width="22.6437246963563"/>
-    <col customWidth="1" max="7" min="7" style="13" width="43.7044534412956"/>
-    <col customWidth="1" max="8" min="8" style="13" width="15.5465587044534"/>
-    <col customWidth="1" max="9" min="9" style="13" width="17.753036437247"/>
-    <col customWidth="1" max="10" min="10" style="13" width="16.4048582995951"/>
-    <col customWidth="1" max="11" min="11" style="13" width="13.7125506072874"/>
-    <col customWidth="1" max="12" min="12" style="13" width="23.6315789473684"/>
-    <col customWidth="1" max="13" min="13" style="13" width="15.668016194332"/>
-    <col customWidth="1" max="14" min="14" style="13" width="65.4939271255061"/>
-    <col customWidth="1" max="16" min="15" style="13" width="8.813765182186231"/>
-    <col customWidth="1" max="17" min="17" style="13" width="29.3805668016194"/>
-    <col customWidth="1" max="18" min="18" style="13" width="14.3238866396761"/>
-    <col customWidth="1" max="21" min="19" style="13" width="8.813765182186231"/>
-    <col customWidth="1" max="22" min="22" style="13" width="11.6315789473684"/>
-    <col customWidth="1" max="23" min="23" style="13" width="12.3603238866397"/>
-    <col customWidth="1" max="24" min="24" style="13" width="10.0404858299595"/>
-    <col customWidth="1" max="1025" min="25" style="13" width="8.813765182186231"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.8097165991903"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="14" spans="1:16">
-      <c r="A1" s="15" t="n"/>
-      <c r="B1" s="15" t="n"/>
-      <c r="C1" s="15" t="n"/>
-      <c r="D1" s="15" t="n"/>
-      <c r="E1" s="15" t="n"/>
-      <c r="F1" s="15" t="n"/>
-      <c r="G1" s="15" t="n"/>
-      <c r="H1" s="16" t="n"/>
-      <c r="I1" s="16" t="n"/>
-      <c r="J1" s="17" t="n"/>
-      <c r="K1" s="15" t="n"/>
-      <c r="L1" s="15" t="n"/>
-      <c r="M1" s="17" t="n"/>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="14" spans="1:16">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="19" t="n"/>
-      <c r="I2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19" t="n">
-        <v>114156</v>
-      </c>
-      <c r="L2" s="19" t="n">
-        <v>2079</v>
-      </c>
-      <c r="M2" s="19" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="N2" s="22" t="n">
-        <v>277767.77</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="P2" t="n">
-        <v>56.56</v>
+      <c r="L6" t="n">
+        <v>16308</v>
+      </c>
+      <c r="M6" t="n">
+        <v>297</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O6" t="n">
+        <v>39681.11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.08</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="14" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19" t="n"/>
-      <c r="L3" s="19" t="n"/>
-      <c r="M3" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="4" s="14" spans="1:16">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19" t="n"/>
-      <c r="L4" s="19" t="n"/>
-      <c r="M4" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.8" r="5" s="14" spans="1:16">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="6" s="14" spans="1:16">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="13.8" r="1048576" s="2" spans="1:17"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
